--- a/plankenlijst-FINAL.xlsx
+++ b/plankenlijst-FINAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>194.6</v>
@@ -2660,7 +2660,7 @@
         <v>-4.799999999999996</v>
       </c>
       <c r="K43" t="n">
-        <v>83.60000000000001</v>
+        <v>154.3</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F44" t="n">
         <v>194.6</v>
@@ -2704,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-24.8</v>
+        <v>-4.799999999999996</v>
       </c>
       <c r="K44" t="n">
-        <v>83.60000000000001</v>
+        <v>110.8</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2736,13 +2736,13 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
         <v>194.6</v>
       </c>
       <c r="G45" t="n">
-        <v>14.8</v>
+        <v>20</v>
       </c>
       <c r="H45" t="n">
         <v>2.2</v>
@@ -2751,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>27.4</v>
+        <v>-4.799999999999996</v>
       </c>
       <c r="K45" t="n">
-        <v>83.60000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2783,13 +2783,13 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
         <v>194.6</v>
       </c>
       <c r="G46" t="n">
-        <v>14.8</v>
+        <v>20</v>
       </c>
       <c r="H46" t="n">
         <v>2.2</v>
@@ -2798,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.6</v>
+        <v>-24.8</v>
       </c>
       <c r="K46" t="n">
-        <v>83.60000000000001</v>
+        <v>154.3</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2820,52 +2820,46 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F47" t="n">
-        <v>190.6</v>
+        <v>194.6</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I47" t="n">
-        <v>96.3</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>36.3</v>
+        <v>-24.8</v>
       </c>
       <c r="K47" t="n">
-        <v>102.5</v>
+        <v>110.8</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2873,52 +2867,46 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>190.6</v>
+        <v>194.6</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I48" t="n">
-        <v>96.3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-36.3</v>
+        <v>-24.8</v>
       </c>
       <c r="K48" t="n">
-        <v>102.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2926,52 +2914,46 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>190.6</v>
+        <v>194.6</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>14.8</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>36.3</v>
+        <v>27.4</v>
       </c>
       <c r="K49" t="n">
-        <v>102.5</v>
+        <v>154.3</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
-      <c r="O49" t="n">
-        <v>1</v>
-      </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2979,52 +2961,46 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>190.6</v>
+        <v>194.6</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>14.8</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>-36.3</v>
+        <v>27.4</v>
       </c>
       <c r="K50" t="n">
-        <v>102.5</v>
+        <v>110.8</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
-      <c r="O50" t="n">
-        <v>1</v>
-      </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3032,52 +3008,46 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>190.6</v>
+        <v>194.6</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>14.8</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I51" t="n">
-        <v>-96.3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>36.3</v>
+        <v>27.4</v>
       </c>
       <c r="K51" t="n">
-        <v>102.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
-      <c r="O51" t="n">
-        <v>2</v>
-      </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3085,52 +3055,46 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>190.6</v>
+        <v>194.6</v>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>14.8</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I52" t="n">
-        <v>-96.3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>-36.3</v>
+        <v>12.6</v>
       </c>
       <c r="K52" t="n">
-        <v>102.5</v>
+        <v>154.3</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
       </c>
-      <c r="O52" t="n">
-        <v>2</v>
-      </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3138,39 +3102,35 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>tussen</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>69.59999999999999</v>
+        <v>194.6</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>14.8</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I53" t="n">
-        <v>96.3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="K53" t="n">
-        <v>81</v>
+        <v>110.8</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3179,11 +3139,9 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>90</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3191,39 +3149,35 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>tussen</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>69.59999999999999</v>
+        <v>194.6</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>14.8</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="K54" t="n">
-        <v>81</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3232,11 +3186,9 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>90</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3249,7 +3201,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3258,10 +3210,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>69.59999999999999</v>
+        <v>190.6</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -3270,25 +3222,25 @@
         <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>-96.3</v>
+        <v>96.3</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>36.3</v>
       </c>
       <c r="K55" t="n">
-        <v>81</v>
+        <v>102.5</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N55" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3302,7 +3254,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3311,10 +3263,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>69.59999999999999</v>
+        <v>190.6</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -3326,19 +3278,19 @@
         <v>96.3</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>-36.3</v>
       </c>
       <c r="K56" t="n">
-        <v>8.699999999999999</v>
+        <v>102.5</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N56" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3355,7 +3307,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3364,10 +3316,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
-        <v>69.59999999999999</v>
+        <v>190.6</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -3379,19 +3331,19 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>36.3</v>
       </c>
       <c r="K57" t="n">
-        <v>8.699999999999999</v>
+        <v>102.5</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N57" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
         <v>1</v>
@@ -3408,7 +3360,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3417,10 +3369,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>69.59999999999999</v>
+        <v>190.6</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -3429,25 +3381,25 @@
         <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>-96.3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>-36.3</v>
       </c>
       <c r="K58" t="n">
-        <v>8.699999999999999</v>
+        <v>102.5</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N58" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -3461,7 +3413,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3470,10 +3422,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F59" t="n">
-        <v>69.59999999999999</v>
+        <v>190.6</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -3482,25 +3434,25 @@
         <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>96.3</v>
+        <v>-96.3</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>36.3</v>
       </c>
       <c r="K59" t="n">
-        <v>196.3</v>
+        <v>102.5</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N59" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3514,7 +3466,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3523,10 +3475,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F60" t="n">
-        <v>69.59999999999999</v>
+        <v>190.6</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -3535,25 +3487,25 @@
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>-96.3</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>-36.3</v>
       </c>
       <c r="K60" t="n">
-        <v>196.3</v>
+        <v>102.5</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N60" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -3567,7 +3519,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3576,7 +3528,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>69.59999999999999</v>
@@ -3588,13 +3540,13 @@
         <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>-96.3</v>
+        <v>96.3</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>196.3</v>
+        <v>151.7</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3606,7 +3558,7 @@
         <v>90</v>
       </c>
       <c r="O61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3620,7 +3572,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>achter</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3629,10 +3581,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
-        <v>93.3</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3641,13 +3593,13 @@
         <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>48.15</v>
+        <v>96.3</v>
       </c>
       <c r="J62" t="n">
-        <v>-36.3</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>83.2</v>
+        <v>108.2</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -3656,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -3673,7 +3625,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>achter</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3682,10 +3634,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>93.3</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -3694,13 +3646,13 @@
         <v>3</v>
       </c>
       <c r="I63" t="n">
-        <v>-48.15</v>
+        <v>96.3</v>
       </c>
       <c r="J63" t="n">
-        <v>-36.3</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>83.2</v>
+        <v>76.8</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3709,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3721,39 +3673,39 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>onderkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F64" t="n">
-        <v>195.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-7.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>6.1</v>
+        <v>151.7</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3762,9 +3714,11 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3772,39 +3726,39 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>onderkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F65" t="n">
-        <v>195.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>-27.8</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>6.1</v>
+        <v>108.2</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -3813,9 +3767,11 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3823,39 +3779,39 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>onderkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F66" t="n">
-        <v>195.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>17.8</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>28.9</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>6.1</v>
+        <v>76.8</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -3864,9 +3820,11 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3874,39 +3832,39 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>onderkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F67" t="n">
-        <v>195.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>17.8</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>-96.3</v>
       </c>
       <c r="J67" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>6.1</v>
+        <v>151.7</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -3915,9 +3873,11 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3925,39 +3885,39 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>bovenkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F68" t="n">
-        <v>195.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>-96.3</v>
       </c>
       <c r="J68" t="n">
-        <v>-7.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>198.9</v>
+        <v>108.2</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -3966,9 +3926,11 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3976,39 +3938,39 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>bovenkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F69" t="n">
-        <v>195.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H69" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>-96.3</v>
       </c>
       <c r="J69" t="n">
-        <v>-27.8</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>198.9</v>
+        <v>76.8</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4017,9 +3979,11 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4027,39 +3991,39 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>bovenkant</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>195.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>17.8</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="J70" t="n">
-        <v>28.9</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>198.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4068,9 +4032,11 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4078,39 +4044,39 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>bovenkant</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>195.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>17.8</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>198.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -4119,9 +4085,11 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4129,46 +4097,52 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>onder</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F72" t="n">
-        <v>195</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>90</v>
+        <v>-96.3</v>
       </c>
       <c r="J72" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>102.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
         <v>90</v>
       </c>
-      <c r="O72" t="inlineStr"/>
+      <c r="O72" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4176,46 +4150,52 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>195</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>70</v>
+        <v>96.3</v>
       </c>
       <c r="J73" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>102.5</v>
+        <v>196.3</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>90</v>
       </c>
-      <c r="O73" t="inlineStr"/>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4223,46 +4203,52 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>195</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>102.5</v>
+        <v>196.3</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>90</v>
       </c>
-      <c r="O74" t="inlineStr"/>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4270,46 +4256,52 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>195</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>30</v>
+        <v>-96.3</v>
       </c>
       <c r="J75" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>102.5</v>
+        <v>196.3</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>90</v>
       </c>
-      <c r="O75" t="inlineStr"/>
+      <c r="O75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4317,46 +4309,52 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F76" t="n">
-        <v>195</v>
+        <v>93.3</v>
       </c>
       <c r="G76" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>10</v>
+        <v>48.15</v>
       </c>
       <c r="J76" t="n">
-        <v>-38.9</v>
+        <v>-36.3</v>
       </c>
       <c r="K76" t="n">
-        <v>102.5</v>
+        <v>153.9</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>90</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4364,46 +4362,52 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F77" t="n">
-        <v>195</v>
+        <v>93.3</v>
       </c>
       <c r="G77" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>-10</v>
+        <v>48.15</v>
       </c>
       <c r="J77" t="n">
-        <v>-38.9</v>
+        <v>-36.3</v>
       </c>
       <c r="K77" t="n">
-        <v>102.5</v>
+        <v>110.4</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>90</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4411,46 +4415,52 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F78" t="n">
-        <v>195</v>
+        <v>93.3</v>
       </c>
       <c r="G78" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
-        <v>-30</v>
+        <v>48.15</v>
       </c>
       <c r="J78" t="n">
-        <v>-38.9</v>
+        <v>-36.3</v>
       </c>
       <c r="K78" t="n">
-        <v>102.5</v>
+        <v>79</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>90</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4458,46 +4468,52 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F79" t="n">
-        <v>195</v>
+        <v>93.3</v>
       </c>
       <c r="G79" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
-        <v>-50</v>
+        <v>-48.15</v>
       </c>
       <c r="J79" t="n">
-        <v>-38.9</v>
+        <v>-36.3</v>
       </c>
       <c r="K79" t="n">
-        <v>102.5</v>
+        <v>153.9</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>90</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4505,46 +4521,52 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F80" t="n">
-        <v>195</v>
+        <v>93.3</v>
       </c>
       <c r="G80" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>-70</v>
+        <v>-48.15</v>
       </c>
       <c r="J80" t="n">
-        <v>-38.9</v>
+        <v>-36.3</v>
       </c>
       <c r="K80" t="n">
-        <v>102.5</v>
+        <v>110.4</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>90</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4552,46 +4574,930 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>24</v>
+      </c>
+      <c r="F81" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-48.15</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>79</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="G82" t="n">
+        <v>20</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-7.799999999999997</v>
+      </c>
+      <c r="K82" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="G83" t="n">
+        <v>20</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-27.8</v>
+      </c>
+      <c r="K83" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="G84" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K84" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="G85" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="G86" t="n">
+        <v>20</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-7.799999999999997</v>
+      </c>
+      <c r="K86" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="G87" t="n">
+        <v>20</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-27.8</v>
+      </c>
+      <c r="K87" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>4</v>
+      </c>
+      <c r="F88" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="G88" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K88" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="G89" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>achterplank</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>195</v>
+      </c>
+      <c r="G90" t="n">
+        <v>20</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I90" t="n">
+        <v>90</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K90" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>90</v>
+      </c>
+      <c r="N90" t="n">
+        <v>90</v>
+      </c>
+      <c r="O90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>195</v>
+      </c>
+      <c r="G91" t="n">
+        <v>20</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>70</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K91" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>90</v>
+      </c>
+      <c r="N91" t="n">
+        <v>90</v>
+      </c>
+      <c r="O91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>195</v>
+      </c>
+      <c r="G92" t="n">
+        <v>20</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I92" t="n">
+        <v>50</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K92" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>90</v>
+      </c>
+      <c r="N92" t="n">
+        <v>90</v>
+      </c>
+      <c r="O92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>195</v>
+      </c>
+      <c r="G93" t="n">
+        <v>20</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>30</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K93" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>90</v>
+      </c>
+      <c r="N93" t="n">
+        <v>90</v>
+      </c>
+      <c r="O93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>195</v>
+      </c>
+      <c r="G94" t="n">
+        <v>20</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>10</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K94" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>90</v>
+      </c>
+      <c r="N94" t="n">
+        <v>90</v>
+      </c>
+      <c r="O94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>195</v>
+      </c>
+      <c r="G95" t="n">
+        <v>20</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K95" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>90</v>
+      </c>
+      <c r="N95" t="n">
+        <v>90</v>
+      </c>
+      <c r="O95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" t="n">
+        <v>195</v>
+      </c>
+      <c r="G96" t="n">
+        <v>20</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-30</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K96" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>90</v>
+      </c>
+      <c r="N96" t="n">
+        <v>90</v>
+      </c>
+      <c r="O96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>7</v>
+      </c>
+      <c r="F97" t="n">
+        <v>195</v>
+      </c>
+      <c r="G97" t="n">
+        <v>20</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-50</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K97" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>90</v>
+      </c>
+      <c r="N97" t="n">
+        <v>90</v>
+      </c>
+      <c r="O97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>195</v>
+      </c>
+      <c r="G98" t="n">
+        <v>20</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-70</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K98" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>90</v>
+      </c>
+      <c r="N98" t="n">
+        <v>90</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
         <v>9</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F99" t="n">
         <v>195</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G99" t="n">
         <v>20</v>
       </c>
-      <c r="H81" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I81" t="n">
+      <c r="H99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I99" t="n">
         <v>-90</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J99" t="n">
         <v>-38.9</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K99" t="n">
         <v>102.5</v>
       </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>90</v>
-      </c>
-      <c r="N81" t="n">
-        <v>90</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>90</v>
+      </c>
+      <c r="N99" t="n">
+        <v>90</v>
+      </c>
+      <c r="O99" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/plankenlijst-FINAL.xlsx
+++ b/plankenlijst-FINAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G2" t="n">
         <v>20</v>
@@ -543,7 +543,7 @@
         <v>-7.799999999999997</v>
       </c>
       <c r="K2" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G3" t="n">
         <v>20</v>
@@ -594,7 +594,7 @@
         <v>-27.8</v>
       </c>
       <c r="K3" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G4" t="n">
         <v>17.8</v>
@@ -645,7 +645,7 @@
         <v>28.9</v>
       </c>
       <c r="K4" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G5" t="n">
         <v>17.8</v>
@@ -696,7 +696,7 @@
         <v>11.1</v>
       </c>
       <c r="K5" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G6" t="n">
         <v>20</v>
@@ -747,7 +747,7 @@
         <v>-7.799999999999997</v>
       </c>
       <c r="K6" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G7" t="n">
         <v>20</v>
@@ -798,7 +798,7 @@
         <v>-27.8</v>
       </c>
       <c r="K7" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G8" t="n">
         <v>17.8</v>
@@ -849,7 +849,7 @@
         <v>28.9</v>
       </c>
       <c r="K8" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G9" t="n">
         <v>17.8</v>
@@ -900,7 +900,7 @@
         <v>11.1</v>
       </c>
       <c r="K9" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G10" t="n">
         <v>7.5</v>
@@ -951,7 +951,7 @@
         <v>38.9</v>
       </c>
       <c r="K10" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G11" t="n">
         <v>7.5</v>
@@ -1004,7 +1004,7 @@
         <v>38.9</v>
       </c>
       <c r="K11" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G12" t="n">
         <v>7.5</v>
@@ -1057,7 +1057,7 @@
         <v>38.9</v>
       </c>
       <c r="K12" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>36.7</v>
       </c>
       <c r="K13" t="n">
-        <v>167.5</v>
+        <v>168.3333333333333</v>
       </c>
       <c r="L13" t="n">
         <v>90</v>
@@ -1163,7 +1163,7 @@
         <v>36.7</v>
       </c>
       <c r="K14" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L14" t="n">
         <v>90</v>
@@ -1216,7 +1216,7 @@
         <v>36.7</v>
       </c>
       <c r="K15" t="n">
-        <v>37.5</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L15" t="n">
         <v>90</v>
@@ -1269,7 +1269,7 @@
         <v>36.7</v>
       </c>
       <c r="K16" t="n">
-        <v>167.5</v>
+        <v>168.3333333333333</v>
       </c>
       <c r="L16" t="n">
         <v>90</v>
@@ -1322,7 +1322,7 @@
         <v>36.7</v>
       </c>
       <c r="K17" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L17" t="n">
         <v>90</v>
@@ -1375,7 +1375,7 @@
         <v>36.7</v>
       </c>
       <c r="K18" t="n">
-        <v>37.5</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L18" t="n">
         <v>90</v>
@@ -1428,7 +1428,7 @@
         <v>40.5</v>
       </c>
       <c r="K19" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L19" t="n">
         <v>90</v>
@@ -1481,7 +1481,7 @@
         <v>40.5</v>
       </c>
       <c r="K20" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L20" t="n">
         <v>90</v>
@@ -1534,7 +1534,7 @@
         <v>40.5</v>
       </c>
       <c r="K21" t="n">
-        <v>167.5</v>
+        <v>168.3333333333333</v>
       </c>
       <c r="L21" t="n">
         <v>90</v>
@@ -1587,7 +1587,7 @@
         <v>40.5</v>
       </c>
       <c r="K22" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L22" t="n">
         <v>90</v>
@@ -1640,7 +1640,7 @@
         <v>40.5</v>
       </c>
       <c r="K23" t="n">
-        <v>37.5</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L23" t="n">
         <v>90</v>
@@ -1693,7 +1693,7 @@
         <v>40.5</v>
       </c>
       <c r="K24" t="n">
-        <v>167.5</v>
+        <v>168.3333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>90</v>
@@ -1746,7 +1746,7 @@
         <v>40.5</v>
       </c>
       <c r="K25" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L25" t="n">
         <v>90</v>
@@ -1799,7 +1799,7 @@
         <v>40.5</v>
       </c>
       <c r="K26" t="n">
-        <v>37.5</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L26" t="n">
         <v>90</v>
@@ -1837,7 +1837,7 @@
         <v>18</v>
       </c>
       <c r="F27" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G27" t="n">
         <v>20</v>
@@ -1852,7 +1852,7 @@
         <v>38.9</v>
       </c>
       <c r="K27" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L27" t="n">
         <v>90</v>
@@ -1890,7 +1890,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G28" t="n">
         <v>20</v>
@@ -1905,7 +1905,7 @@
         <v>38.9</v>
       </c>
       <c r="K28" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L28" t="n">
         <v>90</v>
@@ -1943,7 +1943,7 @@
         <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G29" t="n">
         <v>20</v>
@@ -1958,7 +1958,7 @@
         <v>38.9</v>
       </c>
       <c r="K29" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L29" t="n">
         <v>90</v>
@@ -1996,7 +1996,7 @@
         <v>6</v>
       </c>
       <c r="F30" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G30" t="n">
         <v>20</v>
@@ -2011,7 +2011,7 @@
         <v>38.9</v>
       </c>
       <c r="K30" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L30" t="n">
         <v>90</v>
@@ -2049,7 +2049,7 @@
         <v>5</v>
       </c>
       <c r="F31" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G31" t="n">
         <v>20</v>
@@ -2064,7 +2064,7 @@
         <v>38.9</v>
       </c>
       <c r="K31" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L31" t="n">
         <v>90</v>
@@ -2102,7 +2102,7 @@
         <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G32" t="n">
         <v>20</v>
@@ -2117,7 +2117,7 @@
         <v>38.9</v>
       </c>
       <c r="K32" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L32" t="n">
         <v>90</v>
@@ -2155,7 +2155,7 @@
         <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G33" t="n">
         <v>14.1</v>
@@ -2170,7 +2170,7 @@
         <v>38.9</v>
       </c>
       <c r="K33" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L33" t="n">
         <v>90</v>
@@ -2208,7 +2208,7 @@
         <v>14</v>
       </c>
       <c r="F34" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G34" t="n">
         <v>14.1</v>
@@ -2223,7 +2223,7 @@
         <v>38.9</v>
       </c>
       <c r="K34" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L34" t="n">
         <v>90</v>
@@ -2261,7 +2261,7 @@
         <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G35" t="n">
         <v>14.1</v>
@@ -2276,7 +2276,7 @@
         <v>38.9</v>
       </c>
       <c r="K35" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L35" t="n">
         <v>90</v>
@@ -2314,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G36" t="n">
         <v>14.1</v>
@@ -2329,7 +2329,7 @@
         <v>38.9</v>
       </c>
       <c r="K36" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L36" t="n">
         <v>90</v>
@@ -2363,22 +2363,22 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>10</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+      <c r="I37" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K37" t="n">
         <v>5</v>
-      </c>
-      <c r="G37" t="n">
-        <v>5</v>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-      <c r="I37" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2.5</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2410,22 +2410,22 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+      <c r="I38" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-32.8</v>
+      </c>
+      <c r="K38" t="n">
         <v>5</v>
-      </c>
-      <c r="G38" t="n">
-        <v>5</v>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-      <c r="I38" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>-35.3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2.5</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2457,22 +2457,22 @@
         <v>4</v>
       </c>
       <c r="F39" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K39" t="n">
         <v>5</v>
-      </c>
-      <c r="G39" t="n">
-        <v>5</v>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2.5</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2504,22 +2504,22 @@
         <v>5</v>
       </c>
       <c r="F40" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-32.8</v>
+      </c>
+      <c r="K40" t="n">
         <v>5</v>
-      </c>
-      <c r="G40" t="n">
-        <v>5</v>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>-35.3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.5</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2551,22 +2551,22 @@
         <v>3</v>
       </c>
       <c r="F41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-92.8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K41" t="n">
         <v>5</v>
-      </c>
-      <c r="G41" t="n">
-        <v>5</v>
-      </c>
-      <c r="H41" t="n">
-        <v>5</v>
-      </c>
-      <c r="I41" t="n">
-        <v>-95.3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2.5</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>2</v>
       </c>
       <c r="F42" t="n">
+        <v>10</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-92.8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-32.8</v>
+      </c>
+      <c r="K42" t="n">
         <v>5</v>
-      </c>
-      <c r="G42" t="n">
-        <v>5</v>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-95.3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>-35.3</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.5</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>-4.799999999999996</v>
       </c>
       <c r="K43" t="n">
-        <v>154.3</v>
+        <v>143</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>194.6</v>
@@ -2707,7 +2707,7 @@
         <v>-4.799999999999996</v>
       </c>
       <c r="K44" t="n">
-        <v>110.8</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
         <v>194.6</v>
@@ -2751,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>-4.799999999999996</v>
+        <v>-24.8</v>
       </c>
       <c r="K45" t="n">
-        <v>79.40000000000001</v>
+        <v>143</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>194.6</v>
@@ -2801,7 +2801,7 @@
         <v>-24.8</v>
       </c>
       <c r="K46" t="n">
-        <v>154.3</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2830,13 +2830,13 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
         <v>194.6</v>
       </c>
       <c r="G47" t="n">
-        <v>20</v>
+        <v>14.8</v>
       </c>
       <c r="H47" t="n">
         <v>2.2</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>-24.8</v>
+        <v>27.4</v>
       </c>
       <c r="K47" t="n">
-        <v>110.8</v>
+        <v>143</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2877,13 +2877,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>194.6</v>
       </c>
       <c r="G48" t="n">
-        <v>20</v>
+        <v>14.8</v>
       </c>
       <c r="H48" t="n">
         <v>2.2</v>
@@ -2892,10 +2892,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-24.8</v>
+        <v>27.4</v>
       </c>
       <c r="K48" t="n">
-        <v>79.40000000000001</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>194.6</v>
@@ -2939,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>27.4</v>
+        <v>12.6</v>
       </c>
       <c r="K49" t="n">
-        <v>154.3</v>
+        <v>143</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>194.6</v>
@@ -2986,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>27.4</v>
+        <v>12.6</v>
       </c>
       <c r="K50" t="n">
-        <v>110.8</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3008,46 +3008,52 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>194.6</v>
+        <v>185.6</v>
       </c>
       <c r="G51" t="n">
-        <v>14.8</v>
+        <v>3</v>
       </c>
       <c r="H51" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="J51" t="n">
-        <v>27.4</v>
+        <v>36.3</v>
       </c>
       <c r="K51" t="n">
-        <v>79.40000000000001</v>
+        <v>105</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
-      <c r="O51" t="inlineStr"/>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3055,46 +3061,52 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>194.6</v>
+        <v>185.6</v>
       </c>
       <c r="G52" t="n">
-        <v>14.8</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="J52" t="n">
-        <v>12.6</v>
+        <v>-36.3</v>
       </c>
       <c r="K52" t="n">
-        <v>154.3</v>
+        <v>105</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
       </c>
-      <c r="O52" t="inlineStr"/>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3102,46 +3114,52 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>194.6</v>
+        <v>185.6</v>
       </c>
       <c r="G53" t="n">
-        <v>14.8</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>12.6</v>
+        <v>36.3</v>
       </c>
       <c r="K53" t="n">
-        <v>110.8</v>
+        <v>105</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
-      <c r="O53" t="inlineStr"/>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3149,46 +3167,52 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E54" t="n">
+        <v>8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>105</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>90</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="F54" t="n">
-        <v>194.6</v>
-      </c>
-      <c r="G54" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K54" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3210,10 +3234,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F55" t="n">
-        <v>190.6</v>
+        <v>185.6</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -3222,13 +3246,13 @@
         <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>96.3</v>
+        <v>-96.3</v>
       </c>
       <c r="J55" t="n">
         <v>36.3</v>
       </c>
       <c r="K55" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3240,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -3263,10 +3287,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F56" t="n">
-        <v>190.6</v>
+        <v>185.6</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -3275,13 +3299,13 @@
         <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>96.3</v>
+        <v>-96.3</v>
       </c>
       <c r="J56" t="n">
         <v>-36.3</v>
       </c>
       <c r="K56" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3293,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -3307,7 +3331,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3316,10 +3340,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
-        <v>190.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -3328,25 +3352,25 @@
         <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="J57" t="n">
-        <v>36.3</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>102.5</v>
+        <v>140.4</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3360,7 +3384,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3369,10 +3393,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>190.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -3381,25 +3405,25 @@
         <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="J58" t="n">
-        <v>-36.3</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>102.5</v>
+        <v>89.5</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3413,7 +3437,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3422,10 +3446,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>190.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -3434,25 +3458,25 @@
         <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>-96.3</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>36.3</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>102.5</v>
+        <v>140.4</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3466,7 +3490,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3475,10 +3499,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>190.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -3487,25 +3511,25 @@
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>-96.3</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>-36.3</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>102.5</v>
+        <v>89.5</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3528,7 +3552,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F61" t="n">
         <v>69.59999999999999</v>
@@ -3540,13 +3564,13 @@
         <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>96.3</v>
+        <v>-96.3</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>151.7</v>
+        <v>140.4</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3558,7 +3582,7 @@
         <v>90</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -3581,7 +3605,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F62" t="n">
         <v>69.59999999999999</v>
@@ -3593,13 +3617,13 @@
         <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>96.3</v>
+        <v>-96.3</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>108.2</v>
+        <v>89.5</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -3611,7 +3635,7 @@
         <v>90</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -3625,7 +3649,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3634,7 +3658,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>69.59999999999999</v>
@@ -3652,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>76.8</v>
+        <v>13.7</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3678,7 +3702,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3687,7 +3711,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
         <v>69.59999999999999</v>
@@ -3705,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>151.7</v>
+        <v>13.7</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3731,7 +3755,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3740,7 +3764,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65" t="n">
         <v>69.59999999999999</v>
@@ -3752,13 +3776,13 @@
         <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>-96.3</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>108.2</v>
+        <v>13.7</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -3770,7 +3794,7 @@
         <v>90</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3784,7 +3808,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3793,7 +3817,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>69.59999999999999</v>
@@ -3805,13 +3829,13 @@
         <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>76.8</v>
+        <v>196.3</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -3823,7 +3847,7 @@
         <v>90</v>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3837,7 +3861,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3846,7 +3870,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>69.59999999999999</v>
@@ -3858,13 +3882,13 @@
         <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>-96.3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>151.7</v>
+        <v>196.3</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -3876,7 +3900,7 @@
         <v>90</v>
       </c>
       <c r="O67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3890,7 +3914,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3899,7 +3923,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F68" t="n">
         <v>69.59999999999999</v>
@@ -3917,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>108.2</v>
+        <v>196.3</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -3943,7 +3967,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3952,10 +3976,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F69" t="n">
-        <v>69.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3964,13 +3988,13 @@
         <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>-96.3</v>
+        <v>48.15</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>-36.3</v>
       </c>
       <c r="K69" t="n">
-        <v>76.8</v>
+        <v>142.6</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -3979,10 +4003,10 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3996,7 +4020,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4005,10 +4029,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F70" t="n">
-        <v>69.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -4017,13 +4041,13 @@
         <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>96.3</v>
+        <v>48.15</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>-36.3</v>
       </c>
       <c r="K70" t="n">
-        <v>8.699999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4032,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -4049,7 +4073,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4058,10 +4082,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F71" t="n">
-        <v>69.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -4070,13 +4094,13 @@
         <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>-48.15</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>-36.3</v>
       </c>
       <c r="K71" t="n">
-        <v>8.699999999999999</v>
+        <v>142.6</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -4085,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
         <v>1</v>
@@ -4102,7 +4126,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4111,10 +4135,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F72" t="n">
-        <v>69.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -4123,13 +4147,13 @@
         <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>-96.3</v>
+        <v>-48.15</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>-36.3</v>
       </c>
       <c r="K72" t="n">
-        <v>8.699999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -4138,10 +4162,10 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -4150,39 +4174,39 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>onderkant</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>69.59999999999999</v>
+        <v>195.6</v>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I73" t="n">
-        <v>96.3</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>-7.799999999999997</v>
       </c>
       <c r="K73" t="n">
-        <v>196.3</v>
+        <v>11.1</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4191,11 +4215,9 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>90</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4203,39 +4225,39 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>onderkant</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>69.59999999999999</v>
+        <v>195.6</v>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>-27.8</v>
       </c>
       <c r="K74" t="n">
-        <v>196.3</v>
+        <v>11.1</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4244,11 +4266,9 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>90</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4256,39 +4276,39 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>onderkant</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>69.59999999999999</v>
+        <v>195.6</v>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>17.8</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I75" t="n">
-        <v>-96.3</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="K75" t="n">
-        <v>196.3</v>
+        <v>11.1</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -4297,11 +4317,9 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>90</v>
-      </c>
-      <c r="O75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4309,39 +4327,39 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>achter</t>
+          <t>onderkant</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>93.3</v>
+        <v>195.6</v>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>17.8</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I76" t="n">
-        <v>48.15</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>-36.3</v>
+        <v>11.1</v>
       </c>
       <c r="K76" t="n">
-        <v>153.9</v>
+        <v>11.1</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -4352,9 +4370,7 @@
       <c r="N76" t="n">
         <v>0</v>
       </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4362,39 +4378,39 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>achter</t>
+          <t>bovenkant</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
-        <v>93.3</v>
+        <v>195.6</v>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I77" t="n">
-        <v>48.15</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>-36.3</v>
+        <v>-7.799999999999997</v>
       </c>
       <c r="K77" t="n">
-        <v>110.4</v>
+        <v>198.9</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -4405,9 +4421,7 @@
       <c r="N77" t="n">
         <v>0</v>
       </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4415,39 +4429,39 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>achter</t>
+          <t>bovenkant</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>93.3</v>
+        <v>195.6</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I78" t="n">
-        <v>48.15</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>-36.3</v>
+        <v>-27.8</v>
       </c>
       <c r="K78" t="n">
-        <v>79</v>
+        <v>198.9</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -4458,9 +4472,7 @@
       <c r="N78" t="n">
         <v>0</v>
       </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4468,39 +4480,39 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>achter</t>
+          <t>bovenkant</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>93.3</v>
+        <v>195.6</v>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>17.8</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I79" t="n">
-        <v>-48.15</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>-36.3</v>
+        <v>28.9</v>
       </c>
       <c r="K79" t="n">
-        <v>153.9</v>
+        <v>198.9</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -4511,9 +4523,7 @@
       <c r="N79" t="n">
         <v>0</v>
       </c>
-      <c r="O79" t="n">
-        <v>1</v>
-      </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4521,39 +4531,39 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>achter</t>
+          <t>bovenkant</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
-        <v>93.3</v>
+        <v>195.6</v>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>17.8</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I80" t="n">
-        <v>-48.15</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>-36.3</v>
+        <v>11.1</v>
       </c>
       <c r="K80" t="n">
-        <v>110.4</v>
+        <v>198.9</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -4564,9 +4574,7 @@
       <c r="N80" t="n">
         <v>0</v>
       </c>
-      <c r="O80" t="n">
-        <v>1</v>
-      </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4574,52 +4582,46 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>achter</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>93.3</v>
+        <v>190</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I81" t="n">
-        <v>-48.15</v>
+        <v>90</v>
       </c>
       <c r="J81" t="n">
-        <v>-36.3</v>
+        <v>-38.9</v>
       </c>
       <c r="K81" t="n">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="n">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4627,24 +4629,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>195.6</v>
+        <v>190</v>
       </c>
       <c r="G82" t="n">
         <v>20</v>
@@ -4653,22 +4651,22 @@
         <v>2.2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J82" t="n">
-        <v>-7.799999999999997</v>
+        <v>-38.9</v>
       </c>
       <c r="K82" t="n">
-        <v>6.1</v>
+        <v>105</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O82" t="inlineStr"/>
     </row>
@@ -4678,24 +4676,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>195.6</v>
+        <v>190</v>
       </c>
       <c r="G83" t="n">
         <v>20</v>
@@ -4704,22 +4698,22 @@
         <v>2.2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J83" t="n">
-        <v>-27.8</v>
+        <v>-38.9</v>
       </c>
       <c r="K83" t="n">
-        <v>6.1</v>
+        <v>105</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O83" t="inlineStr"/>
     </row>
@@ -4729,48 +4723,44 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>195.6</v>
+        <v>190</v>
       </c>
       <c r="G84" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="H84" t="n">
         <v>2.2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J84" t="n">
-        <v>28.9</v>
+        <v>-38.9</v>
       </c>
       <c r="K84" t="n">
-        <v>6.1</v>
+        <v>105</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O84" t="inlineStr"/>
     </row>
@@ -4780,48 +4770,44 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>195.6</v>
+        <v>190</v>
       </c>
       <c r="G85" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="H85" t="n">
         <v>2.2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J85" t="n">
-        <v>11.1</v>
+        <v>-38.9</v>
       </c>
       <c r="K85" t="n">
-        <v>6.1</v>
+        <v>105</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O85" t="inlineStr"/>
     </row>
@@ -4831,24 +4817,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
-        <v>195.6</v>
+        <v>190</v>
       </c>
       <c r="G86" t="n">
         <v>20</v>
@@ -4857,22 +4839,22 @@
         <v>2.2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J86" t="n">
-        <v>-7.799999999999997</v>
+        <v>-38.9</v>
       </c>
       <c r="K86" t="n">
-        <v>198.9</v>
+        <v>105</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O86" t="inlineStr"/>
     </row>
@@ -4882,24 +4864,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
-        <v>195.6</v>
+        <v>190</v>
       </c>
       <c r="G87" t="n">
         <v>20</v>
@@ -4908,22 +4886,22 @@
         <v>2.2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="J87" t="n">
-        <v>-27.8</v>
+        <v>-38.9</v>
       </c>
       <c r="K87" t="n">
-        <v>198.9</v>
+        <v>105</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O87" t="inlineStr"/>
     </row>
@@ -4933,48 +4911,44 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>195.6</v>
+        <v>190</v>
       </c>
       <c r="G88" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="H88" t="n">
         <v>2.2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J88" t="n">
-        <v>28.9</v>
+        <v>-38.9</v>
       </c>
       <c r="K88" t="n">
-        <v>198.9</v>
+        <v>105</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O88" t="inlineStr"/>
     </row>
@@ -4984,48 +4958,44 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>195.6</v>
+        <v>190</v>
       </c>
       <c r="G89" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="H89" t="n">
         <v>2.2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="J89" t="n">
-        <v>11.1</v>
+        <v>-38.9</v>
       </c>
       <c r="K89" t="n">
-        <v>198.9</v>
+        <v>105</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O89" t="inlineStr"/>
     </row>
@@ -5045,10 +5015,10 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F90" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G90" t="n">
         <v>20</v>
@@ -5057,13 +5027,13 @@
         <v>2.2</v>
       </c>
       <c r="I90" t="n">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="J90" t="n">
         <v>-38.9</v>
       </c>
       <c r="K90" t="n">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -5075,429 +5045,6 @@
         <v>90</v>
       </c>
       <c r="O90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" t="n">
-        <v>195</v>
-      </c>
-      <c r="G91" t="n">
-        <v>20</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>70</v>
-      </c>
-      <c r="J91" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K91" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" t="n">
-        <v>90</v>
-      </c>
-      <c r="N91" t="n">
-        <v>90</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>2</v>
-      </c>
-      <c r="F92" t="n">
-        <v>195</v>
-      </c>
-      <c r="G92" t="n">
-        <v>20</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>50</v>
-      </c>
-      <c r="J92" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K92" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="n">
-        <v>90</v>
-      </c>
-      <c r="N92" t="n">
-        <v>90</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>3</v>
-      </c>
-      <c r="F93" t="n">
-        <v>195</v>
-      </c>
-      <c r="G93" t="n">
-        <v>20</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>30</v>
-      </c>
-      <c r="J93" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K93" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>90</v>
-      </c>
-      <c r="N93" t="n">
-        <v>90</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>4</v>
-      </c>
-      <c r="F94" t="n">
-        <v>195</v>
-      </c>
-      <c r="G94" t="n">
-        <v>20</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>10</v>
-      </c>
-      <c r="J94" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K94" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>90</v>
-      </c>
-      <c r="N94" t="n">
-        <v>90</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>5</v>
-      </c>
-      <c r="F95" t="n">
-        <v>195</v>
-      </c>
-      <c r="G95" t="n">
-        <v>20</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K95" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>90</v>
-      </c>
-      <c r="N95" t="n">
-        <v>90</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>6</v>
-      </c>
-      <c r="F96" t="n">
-        <v>195</v>
-      </c>
-      <c r="G96" t="n">
-        <v>20</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J96" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K96" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>90</v>
-      </c>
-      <c r="N96" t="n">
-        <v>90</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>7</v>
-      </c>
-      <c r="F97" t="n">
-        <v>195</v>
-      </c>
-      <c r="G97" t="n">
-        <v>20</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J97" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K97" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>90</v>
-      </c>
-      <c r="N97" t="n">
-        <v>90</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>8</v>
-      </c>
-      <c r="F98" t="n">
-        <v>195</v>
-      </c>
-      <c r="G98" t="n">
-        <v>20</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J98" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K98" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="n">
-        <v>90</v>
-      </c>
-      <c r="N98" t="n">
-        <v>90</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>9</v>
-      </c>
-      <c r="F99" t="n">
-        <v>195</v>
-      </c>
-      <c r="G99" t="n">
-        <v>20</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>-90</v>
-      </c>
-      <c r="J99" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K99" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>90</v>
-      </c>
-      <c r="N99" t="n">
-        <v>90</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/plankenlijst-FINAL.xlsx
+++ b/plankenlijst-FINAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,25 +525,25 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>37.8</v>
       </c>
       <c r="H2" t="n">
         <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-48.9</v>
+        <v>-198.9</v>
       </c>
       <c r="J2" t="n">
-        <v>-12.80000000000001</v>
+        <v>18.9</v>
       </c>
       <c r="K2" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -579,22 +579,22 @@
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="G3" t="n">
-        <v>12.8</v>
+        <v>37.8</v>
       </c>
       <c r="H3" t="n">
         <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-48.9</v>
+        <v>-198.9</v>
       </c>
       <c r="J3" t="n">
-        <v>16.4</v>
+        <v>-18.9</v>
       </c>
       <c r="K3" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>rechts</t>
+          <t>links</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -627,25 +627,25 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="G4" t="n">
-        <v>12.8</v>
+        <v>37.8</v>
       </c>
       <c r="H4" t="n">
         <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-48.9</v>
+        <v>198.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.599999999999995</v>
+        <v>18.9</v>
       </c>
       <c r="K4" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>37.8</v>
       </c>
       <c r="H5" t="n">
         <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>48.9</v>
+        <v>198.9</v>
       </c>
       <c r="J5" t="n">
-        <v>-12.80000000000001</v>
+        <v>-18.9</v>
       </c>
       <c r="K5" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -715,12 +715,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zeiplanken</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>links</t>
+          <t>voorplank</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -729,25 +729,25 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="G6" t="n">
-        <v>12.8</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="n">
         <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>48.9</v>
+        <v>196.25</v>
       </c>
       <c r="J6" t="n">
-        <v>16.4</v>
+        <v>38.9</v>
       </c>
       <c r="K6" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -756,9 +756,11 @@
         <v>90</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -766,12 +768,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zeiplanken</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>links</t>
+          <t>voorplank</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -780,25 +782,25 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F7" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="G7" t="n">
-        <v>12.8</v>
+        <v>7.5</v>
       </c>
       <c r="H7" t="n">
         <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>48.9</v>
+        <v>65.41666666666669</v>
       </c>
       <c r="J7" t="n">
-        <v>3.599999999999995</v>
+        <v>38.9</v>
       </c>
       <c r="K7" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -807,9 +809,11 @@
         <v>90</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -831,10 +835,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="G8" t="n">
         <v>7.5</v>
@@ -843,13 +847,13 @@
         <v>2.2</v>
       </c>
       <c r="I8" t="n">
-        <v>46.25</v>
+        <v>-65.41666666666666</v>
       </c>
       <c r="J8" t="n">
-        <v>23.9</v>
+        <v>38.9</v>
       </c>
       <c r="K8" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -861,7 +865,7 @@
         <v>90</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -887,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="G9" t="n">
         <v>7.5</v>
@@ -896,13 +900,13 @@
         <v>2.2</v>
       </c>
       <c r="I9" t="n">
-        <v>-46.25</v>
+        <v>-196.25</v>
       </c>
       <c r="J9" t="n">
-        <v>23.9</v>
+        <v>38.9</v>
       </c>
       <c r="K9" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -937,25 +941,25 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n">
-        <v>76</v>
+        <v>110.5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H10" t="n">
         <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.25</v>
+        <v>130.5833333333333</v>
       </c>
       <c r="J10" t="n">
-        <v>21.7</v>
+        <v>36.7</v>
       </c>
       <c r="K10" t="n">
-        <v>584.1666666666666</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="L10" t="n">
         <v>90</v>
@@ -967,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -990,25 +994,25 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F11" t="n">
-        <v>76</v>
+        <v>110.5</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H11" t="n">
         <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.25</v>
+        <v>130.5833333333333</v>
       </c>
       <c r="J11" t="n">
-        <v>21.7</v>
+        <v>36.7</v>
       </c>
       <c r="K11" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L11" t="n">
         <v>90</v>
@@ -1020,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1043,25 +1047,25 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>76</v>
+        <v>110.5</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H12" t="n">
         <v>2.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.25</v>
+        <v>130.5833333333333</v>
       </c>
       <c r="J12" t="n">
-        <v>21.7</v>
+        <v>36.7</v>
       </c>
       <c r="K12" t="n">
-        <v>120.8333333333333</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="L12" t="n">
         <v>90</v>
@@ -1073,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1087,34 +1091,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>slot</t>
+          <t>stut</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>slot</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>110.5</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-42.5</v>
+        <v>-0.2499999999999929</v>
       </c>
       <c r="J13" t="n">
-        <v>25.5</v>
+        <v>36.7</v>
       </c>
       <c r="K13" t="n">
-        <v>352.5</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="L13" t="n">
         <v>90</v>
@@ -1126,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1140,34 +1144,34 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>stut</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>110.5</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-42.5</v>
+        <v>-0.2499999999999929</v>
       </c>
       <c r="J14" t="n">
-        <v>25.5</v>
+        <v>36.7</v>
       </c>
       <c r="K14" t="n">
-        <v>584.1666666666666</v>
+        <v>152.5</v>
       </c>
       <c r="L14" t="n">
         <v>90</v>
@@ -1179,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1193,34 +1197,34 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>stut</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>110.5</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="I15" t="n">
-        <v>-42.5</v>
+        <v>-0.2499999999999929</v>
       </c>
       <c r="J15" t="n">
-        <v>25.5</v>
+        <v>36.7</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="L15" t="n">
         <v>90</v>
@@ -1232,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1246,34 +1250,34 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>stut</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>110.5</v>
       </c>
       <c r="G16" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="I16" t="n">
-        <v>-42.5</v>
+        <v>-131.0833333333333</v>
       </c>
       <c r="J16" t="n">
-        <v>25.5</v>
+        <v>36.7</v>
       </c>
       <c r="K16" t="n">
-        <v>120.8333333333333</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="L16" t="n">
         <v>90</v>
@@ -1299,7 +1303,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>stut</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1311,28 +1315,28 @@
         <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>695</v>
+        <v>110.5</v>
       </c>
       <c r="G17" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H17" t="n">
         <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>32</v>
+        <v>-131.0833333333333</v>
       </c>
       <c r="J17" t="n">
-        <v>23.9</v>
+        <v>36.7</v>
       </c>
       <c r="K17" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L17" t="n">
         <v>90</v>
       </c>
       <c r="M17" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1352,7 +1356,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>stut</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1361,31 +1365,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>695</v>
+        <v>110.5</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H18" t="n">
         <v>2.2</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>-131.0833333333333</v>
       </c>
       <c r="J18" t="n">
-        <v>23.9</v>
+        <v>36.7</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="L18" t="n">
         <v>90</v>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1405,46 +1409,46 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F19" t="n">
-        <v>695</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-8.000000000000002</v>
+        <v>69.16666666666669</v>
       </c>
       <c r="J19" t="n">
-        <v>23.9</v>
+        <v>40.5</v>
       </c>
       <c r="K19" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L19" t="n">
         <v>90</v>
       </c>
       <c r="M19" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1458,46 +1462,46 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>695</v>
+        <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>12.2</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-24.125</v>
+        <v>-61.66666666666666</v>
       </c>
       <c r="J20" t="n">
-        <v>23.9</v>
+        <v>40.5</v>
       </c>
       <c r="K20" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L20" t="n">
         <v>90</v>
       </c>
       <c r="M20" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1511,40 +1515,40 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>695</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>12.2</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-36.375</v>
+        <v>-192.5</v>
       </c>
       <c r="J21" t="n">
-        <v>23.9</v>
+        <v>40.5</v>
       </c>
       <c r="K21" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L21" t="n">
         <v>90</v>
       </c>
       <c r="M21" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1559,38 +1563,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>voet</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>voorkant</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F22" t="n">
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>45.3</v>
+        <v>69.16666666666669</v>
       </c>
       <c r="J22" t="n">
-        <v>20.3</v>
+        <v>40.5</v>
       </c>
       <c r="K22" t="n">
-        <v>2.5</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1598,7 +1606,9 @@
       <c r="N22" t="n">
         <v>0</v>
       </c>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1606,38 +1616,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>voet</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>voorkant</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>45.3</v>
+        <v>69.16666666666669</v>
       </c>
       <c r="J23" t="n">
-        <v>-20.3</v>
+        <v>40.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.5</v>
+        <v>152.5</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1645,7 +1659,9 @@
       <c r="N23" t="n">
         <v>0</v>
       </c>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1653,38 +1669,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>voet</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>voorkant</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F24" t="n">
         <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-45.3</v>
+        <v>69.16666666666669</v>
       </c>
       <c r="J24" t="n">
-        <v>20.3</v>
+        <v>40.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1692,7 +1712,9 @@
       <c r="N24" t="n">
         <v>0</v>
       </c>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1700,38 +1722,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>voet</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>voorkant</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F25" t="n">
         <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-45.3</v>
+        <v>-61.66666666666666</v>
       </c>
       <c r="J25" t="n">
-        <v>-20.3</v>
+        <v>40.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2.5</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1739,7 +1765,9 @@
       <c r="N25" t="n">
         <v>0</v>
       </c>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1747,38 +1775,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>voorkant</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F26" t="n">
-        <v>94.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>19.8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-61.66666666666666</v>
       </c>
       <c r="J26" t="n">
-        <v>9.9</v>
+        <v>40.5</v>
       </c>
       <c r="K26" t="n">
-        <v>395.4999999999999</v>
+        <v>152.5</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1786,7 +1818,9 @@
       <c r="N26" t="n">
         <v>0</v>
       </c>
-      <c r="O26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1794,46 +1828,52 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>voorkant</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E27" t="n">
+        <v>21</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>10</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-61.66666666666666</v>
+      </c>
+      <c r="J27" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>54.16666666666666</v>
+      </c>
+      <c r="L27" t="n">
+        <v>90</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>2</v>
       </c>
-      <c r="F27" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="G27" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="K27" t="n">
-        <v>266.6</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1841,38 +1881,42 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>voorkant</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E28" t="n">
+        <v>11</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10</v>
+      </c>
+      <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="F28" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="G28" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.2</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-192.5</v>
       </c>
       <c r="J28" t="n">
-        <v>-9.9</v>
+        <v>40.5</v>
       </c>
       <c r="K28" t="n">
-        <v>395.4999999999999</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -1880,7 +1924,9 @@
       <c r="N28" t="n">
         <v>0</v>
       </c>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1888,38 +1934,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>voorkant</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>94.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>19.8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-192.5</v>
       </c>
       <c r="J29" t="n">
-        <v>-9.9</v>
+        <v>40.5</v>
       </c>
       <c r="K29" t="n">
-        <v>266.6</v>
+        <v>152.5</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1927,7 +1977,9 @@
       <c r="N29" t="n">
         <v>0</v>
       </c>
-      <c r="O29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1935,51 +1987,51 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" t="n">
-        <v>690.6</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
       <c r="I30" t="n">
-        <v>46.3</v>
+        <v>-192.5</v>
       </c>
       <c r="J30" t="n">
-        <v>21.3</v>
+        <v>40.5</v>
       </c>
       <c r="K30" t="n">
-        <v>352.5</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M30" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1988,42 +2040,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F31" t="n">
-        <v>690.6</v>
+        <v>295</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I31" t="n">
-        <v>46.3</v>
+        <v>172</v>
       </c>
       <c r="J31" t="n">
-        <v>-21.3</v>
+        <v>38.9</v>
       </c>
       <c r="K31" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M31" t="n">
         <v>90</v>
@@ -2032,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -2041,42 +2093,42 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F32" t="n">
-        <v>690.6</v>
+        <v>295</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I32" t="n">
-        <v>-46.3</v>
+        <v>132</v>
       </c>
       <c r="J32" t="n">
-        <v>21.3</v>
+        <v>38.9</v>
       </c>
       <c r="K32" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M32" t="n">
         <v>90</v>
@@ -2085,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -2094,42 +2146,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F33" t="n">
-        <v>690.6</v>
+        <v>295</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I33" t="n">
-        <v>-46.3</v>
+        <v>41.16666666666666</v>
       </c>
       <c r="J33" t="n">
-        <v>-21.3</v>
+        <v>38.9</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M33" t="n">
         <v>90</v>
@@ -2147,51 +2199,51 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F34" t="n">
-        <v>39.6</v>
+        <v>295</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I34" t="n">
-        <v>46.3</v>
+        <v>1.166666666666664</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K34" t="n">
-        <v>392.9</v>
+        <v>152.5</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N34" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2200,51 +2252,51 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>39.6</v>
+        <v>295</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I35" t="n">
-        <v>46.3</v>
+        <v>-89.66666666666663</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K35" t="n">
-        <v>264</v>
+        <v>152.5</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N35" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2253,51 +2305,51 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>39.6</v>
+        <v>295</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I36" t="n">
-        <v>-46.3</v>
+        <v>-129.6666666666666</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K36" t="n">
-        <v>392.9</v>
+        <v>152.5</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N36" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2306,51 +2358,51 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F37" t="n">
-        <v>39.6</v>
+        <v>295</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>21.4</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I37" t="n">
-        <v>-46.3</v>
+        <v>101.2916666666667</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K37" t="n">
-        <v>264</v>
+        <v>152.5</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N37" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2359,51 +2411,51 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F38" t="n">
-        <v>39.6</v>
+        <v>295</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>21.4</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I38" t="n">
-        <v>46.3</v>
+        <v>79.87500000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K38" t="n">
-        <v>8.699999999999999</v>
+        <v>152.5</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N38" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -2412,48 +2464,48 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F39" t="n">
-        <v>39.6</v>
+        <v>295</v>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>21.4</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I39" t="n">
-        <v>-46.3</v>
+        <v>-29.54166666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K39" t="n">
-        <v>8.699999999999999</v>
+        <v>152.5</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N39" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>2</v>
@@ -2465,51 +2517,51 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F40" t="n">
-        <v>39.6</v>
+        <v>295</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>21.4</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I40" t="n">
-        <v>46.3</v>
+        <v>-50.95833333333333</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K40" t="n">
-        <v>696.3</v>
+        <v>152.5</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N40" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2518,51 +2570,51 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>39.6</v>
+        <v>295</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>21.4</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I41" t="n">
-        <v>-46.3</v>
+        <v>-160.375</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K41" t="n">
-        <v>696.3</v>
+        <v>152.5</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N41" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2571,51 +2623,51 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>achter</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>89.59999999999999</v>
+        <v>295</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>21.4</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>-181.7916666666667</v>
       </c>
       <c r="J42" t="n">
-        <v>-21.3</v>
+        <v>38.9</v>
       </c>
       <c r="K42" t="n">
-        <v>395.1</v>
+        <v>152.5</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2624,39 +2676,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>achter</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>89.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>195.3</v>
       </c>
       <c r="J43" t="n">
-        <v>-21.3</v>
+        <v>35.3</v>
       </c>
       <c r="K43" t="n">
-        <v>266.2</v>
+        <v>2.5</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2667,9 +2715,7 @@
       <c r="N43" t="n">
         <v>0</v>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2677,39 +2723,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>95.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>195.3</v>
       </c>
       <c r="J44" t="n">
-        <v>-12.80000000000001</v>
+        <v>-35.3</v>
       </c>
       <c r="K44" t="n">
-        <v>6.1</v>
+        <v>2.5</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2728,39 +2770,35 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>95.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>12.8</v>
+        <v>5</v>
       </c>
       <c r="H45" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.43333333333334</v>
       </c>
       <c r="J45" t="n">
-        <v>16.4</v>
+        <v>35.3</v>
       </c>
       <c r="K45" t="n">
-        <v>6.1</v>
+        <v>2.5</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2779,39 +2817,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
-        <v>95.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>12.8</v>
+        <v>5</v>
       </c>
       <c r="H46" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>65.43333333333334</v>
       </c>
       <c r="J46" t="n">
-        <v>3.599999999999995</v>
+        <v>-35.3</v>
       </c>
       <c r="K46" t="n">
-        <v>6.1</v>
+        <v>2.5</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2830,39 +2864,35 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>5</v>
       </c>
       <c r="F47" t="n">
-        <v>95.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H47" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>-65.43333333333334</v>
       </c>
       <c r="J47" t="n">
-        <v>-12.80000000000001</v>
+        <v>35.3</v>
       </c>
       <c r="K47" t="n">
-        <v>698.9</v>
+        <v>2.5</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2881,39 +2911,35 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>95.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
-        <v>12.8</v>
+        <v>5</v>
       </c>
       <c r="H48" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>-65.43333333333334</v>
       </c>
       <c r="J48" t="n">
-        <v>16.4</v>
+        <v>-35.3</v>
       </c>
       <c r="K48" t="n">
-        <v>698.9</v>
+        <v>2.5</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2932,39 +2958,35 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>95.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G49" t="n">
-        <v>12.8</v>
+        <v>5</v>
       </c>
       <c r="H49" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>-195.3</v>
       </c>
       <c r="J49" t="n">
-        <v>3.599999999999995</v>
+        <v>35.3</v>
       </c>
       <c r="K49" t="n">
-        <v>698.9</v>
+        <v>2.5</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2983,44 +3005,44 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>achterplank</t>
+          <t>voet</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>695</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>40</v>
+        <v>-195.3</v>
       </c>
       <c r="J50" t="n">
-        <v>-23.9</v>
+        <v>-35.3</v>
       </c>
       <c r="K50" t="n">
-        <v>352.5</v>
+        <v>2.5</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O50" t="inlineStr"/>
     </row>
@@ -3030,7 +3052,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>achterplank</t>
+          <t>vlonders</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -3040,34 +3062,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>695</v>
+        <v>394.6</v>
       </c>
       <c r="G51" t="n">
-        <v>20</v>
+        <v>34.8</v>
       </c>
       <c r="H51" t="n">
         <v>2.2</v>
       </c>
       <c r="I51" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-23.9</v>
+        <v>17.4</v>
       </c>
       <c r="K51" t="n">
-        <v>352.5</v>
+        <v>142.9</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O51" t="inlineStr"/>
     </row>
@@ -3077,7 +3099,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>achterplank</t>
+          <t>vlonders</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -3087,13 +3109,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>695</v>
+        <v>394.6</v>
       </c>
       <c r="G52" t="n">
-        <v>20</v>
+        <v>34.8</v>
       </c>
       <c r="H52" t="n">
         <v>2.2</v>
@@ -3102,19 +3124,19 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>-23.9</v>
+        <v>-17.4</v>
       </c>
       <c r="K52" t="n">
-        <v>352.5</v>
+        <v>142.9</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O52" t="inlineStr"/>
     </row>
@@ -3124,35 +3146,39 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>695</v>
+        <v>290.6</v>
       </c>
       <c r="G53" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>-20</v>
+        <v>196.3</v>
       </c>
       <c r="J53" t="n">
-        <v>-23.9</v>
+        <v>36.3</v>
       </c>
       <c r="K53" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3161,9 +3187,11 @@
         <v>90</v>
       </c>
       <c r="N53" t="n">
-        <v>90</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3171,46 +3199,1839 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>90</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>65.43333333333334</v>
+      </c>
+      <c r="J55" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K55" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>90</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>65.43333333333334</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K56" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>90</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>11</v>
+      </c>
+      <c r="F57" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-65.43333333333334</v>
+      </c>
+      <c r="J57" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K57" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>90</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>12</v>
+      </c>
+      <c r="F58" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-65.43333333333334</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K58" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>90</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>16</v>
+      </c>
+      <c r="F59" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-196.3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>90</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>17</v>
+      </c>
+      <c r="F60" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-196.3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K60" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>90</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+      <c r="I61" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>90</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>65.43333333333334</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>90</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>14</v>
+      </c>
+      <c r="F63" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-65.43333333333334</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>90</v>
+      </c>
+      <c r="O63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>19</v>
+      </c>
+      <c r="F64" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-196.3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>90</v>
+      </c>
+      <c r="O64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>onder</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>90</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>onder</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+      <c r="I66" t="n">
+        <v>65.43333333333334</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>90</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>onder</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>10</v>
+      </c>
+      <c r="F67" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-65.43333333333334</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>90</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>onder</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>15</v>
+      </c>
+      <c r="F68" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-196.3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>90</v>
+      </c>
+      <c r="O68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+      <c r="I69" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>296.3</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>90</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+      <c r="I70" t="n">
+        <v>65.43333333333334</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>296.3</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>90</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>13</v>
+      </c>
+      <c r="F71" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-65.43333333333334</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>296.3</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>90</v>
+      </c>
+      <c r="O71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>18</v>
+      </c>
+      <c r="F72" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-196.3</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>296.3</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>90</v>
+      </c>
+      <c r="O72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>21</v>
+      </c>
+      <c r="F73" t="n">
+        <v>127.8666666666667</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+      <c r="I73" t="n">
+        <v>130.8666666666667</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K73" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>20</v>
+      </c>
+      <c r="F74" t="n">
+        <v>127.8666666666667</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K74" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>22</v>
+      </c>
+      <c r="F75" t="n">
+        <v>127.8666666666667</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-130.8666666666667</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K75" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>395.6</v>
+      </c>
+      <c r="G76" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K76" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>395.6</v>
+      </c>
+      <c r="G77" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-18.9</v>
+      </c>
+      <c r="K77" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>395.6</v>
+      </c>
+      <c r="G78" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K78" t="n">
+        <v>298.9</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>3</v>
+      </c>
+      <c r="F79" t="n">
+        <v>395.6</v>
+      </c>
+      <c r="G79" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-18.9</v>
+      </c>
+      <c r="K79" t="n">
+        <v>298.9</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
           <t>achterplank</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>295</v>
+      </c>
+      <c r="G80" t="n">
+        <v>40</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I80" t="n">
+        <v>180</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K80" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>90</v>
+      </c>
+      <c r="N80" t="n">
+        <v>90</v>
+      </c>
+      <c r="O80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>295</v>
+      </c>
+      <c r="G81" t="n">
+        <v>40</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I81" t="n">
+        <v>140</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K81" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>90</v>
+      </c>
+      <c r="N81" t="n">
+        <v>90</v>
+      </c>
+      <c r="O81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" t="n">
+        <v>295</v>
+      </c>
+      <c r="G82" t="n">
+        <v>40</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I82" t="n">
+        <v>100</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K82" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>90</v>
+      </c>
+      <c r="N82" t="n">
+        <v>90</v>
+      </c>
+      <c r="O82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>295</v>
+      </c>
+      <c r="G83" t="n">
+        <v>40</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I83" t="n">
+        <v>60</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K83" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>90</v>
+      </c>
+      <c r="N83" t="n">
+        <v>90</v>
+      </c>
+      <c r="O83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
         <v>4</v>
       </c>
-      <c r="F54" t="n">
-        <v>695</v>
-      </c>
-      <c r="G54" t="n">
+      <c r="F84" t="n">
+        <v>295</v>
+      </c>
+      <c r="G84" t="n">
+        <v>40</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I84" t="n">
         <v>20</v>
       </c>
-      <c r="H54" t="n">
+      <c r="J84" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K84" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>90</v>
+      </c>
+      <c r="N84" t="n">
+        <v>90</v>
+      </c>
+      <c r="O84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>295</v>
+      </c>
+      <c r="G85" t="n">
+        <v>40</v>
+      </c>
+      <c r="H85" t="n">
         <v>2.2</v>
       </c>
-      <c r="I54" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J54" t="n">
-        <v>-23.9</v>
-      </c>
-      <c r="K54" t="n">
-        <v>352.5</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>90</v>
-      </c>
-      <c r="N54" t="n">
-        <v>90</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>-20</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K85" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>90</v>
+      </c>
+      <c r="N85" t="n">
+        <v>90</v>
+      </c>
+      <c r="O85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" t="n">
+        <v>295</v>
+      </c>
+      <c r="G86" t="n">
+        <v>40</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-60</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K86" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>90</v>
+      </c>
+      <c r="N86" t="n">
+        <v>90</v>
+      </c>
+      <c r="O86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" t="n">
+        <v>295</v>
+      </c>
+      <c r="G87" t="n">
+        <v>40</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K87" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>90</v>
+      </c>
+      <c r="N87" t="n">
+        <v>90</v>
+      </c>
+      <c r="O87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>295</v>
+      </c>
+      <c r="G88" t="n">
+        <v>40</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-140</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K88" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>90</v>
+      </c>
+      <c r="N88" t="n">
+        <v>90</v>
+      </c>
+      <c r="O88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>9</v>
+      </c>
+      <c r="F89" t="n">
+        <v>295</v>
+      </c>
+      <c r="G89" t="n">
+        <v>40</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-180</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K89" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>90</v>
+      </c>
+      <c r="N89" t="n">
+        <v>90</v>
+      </c>
+      <c r="O89" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/plankenlijst-FINAL.xlsx
+++ b/plankenlijst-FINAL.xlsx
@@ -531,16 +531,16 @@
         <v>295</v>
       </c>
       <c r="G2" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I2" t="n">
-        <v>-198.9</v>
+        <v>-198.4985</v>
       </c>
       <c r="J2" t="n">
-        <v>18.9</v>
+        <v>18.4985</v>
       </c>
       <c r="K2" t="n">
         <v>152.5</v>
@@ -582,16 +582,16 @@
         <v>295</v>
       </c>
       <c r="G3" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I3" t="n">
-        <v>-198.9</v>
+        <v>-198.4985</v>
       </c>
       <c r="J3" t="n">
-        <v>-18.9</v>
+        <v>-18.4985</v>
       </c>
       <c r="K3" t="n">
         <v>152.5</v>
@@ -633,16 +633,16 @@
         <v>295</v>
       </c>
       <c r="G4" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I4" t="n">
-        <v>198.9</v>
+        <v>198.4985</v>
       </c>
       <c r="J4" t="n">
-        <v>18.9</v>
+        <v>18.4985</v>
       </c>
       <c r="K4" t="n">
         <v>152.5</v>
@@ -684,16 +684,16 @@
         <v>295</v>
       </c>
       <c r="G5" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I5" t="n">
-        <v>198.9</v>
+        <v>198.4985</v>
       </c>
       <c r="J5" t="n">
-        <v>-18.9</v>
+        <v>-18.4985</v>
       </c>
       <c r="K5" t="n">
         <v>152.5</v>
@@ -738,13 +738,13 @@
         <v>7.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I6" t="n">
         <v>196.25</v>
       </c>
       <c r="J6" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K6" t="n">
         <v>152.5</v>
@@ -791,13 +791,13 @@
         <v>7.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I7" t="n">
         <v>65.41666666666669</v>
       </c>
       <c r="J7" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K7" t="n">
         <v>152.5</v>
@@ -844,13 +844,13 @@
         <v>7.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I8" t="n">
         <v>-65.41666666666666</v>
       </c>
       <c r="J8" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K8" t="n">
         <v>152.5</v>
@@ -897,13 +897,13 @@
         <v>7.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I9" t="n">
         <v>-196.25</v>
       </c>
       <c r="J9" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K9" t="n">
         <v>152.5</v>
@@ -950,13 +950,13 @@
         <v>40</v>
       </c>
       <c r="H10" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I10" t="n">
         <v>130.5833333333333</v>
       </c>
       <c r="J10" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K10" t="n">
         <v>250.8333333333333</v>
@@ -1003,13 +1003,13 @@
         <v>40</v>
       </c>
       <c r="H11" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I11" t="n">
         <v>130.5833333333333</v>
       </c>
       <c r="J11" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K11" t="n">
         <v>152.5</v>
@@ -1056,13 +1056,13 @@
         <v>40</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I12" t="n">
         <v>130.5833333333333</v>
       </c>
       <c r="J12" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K12" t="n">
         <v>54.16666666666666</v>
@@ -1109,13 +1109,13 @@
         <v>40</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I13" t="n">
         <v>-0.2499999999999929</v>
       </c>
       <c r="J13" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K13" t="n">
         <v>250.8333333333333</v>
@@ -1162,13 +1162,13 @@
         <v>40</v>
       </c>
       <c r="H14" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I14" t="n">
         <v>-0.2499999999999929</v>
       </c>
       <c r="J14" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K14" t="n">
         <v>152.5</v>
@@ -1215,13 +1215,13 @@
         <v>40</v>
       </c>
       <c r="H15" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I15" t="n">
         <v>-0.2499999999999929</v>
       </c>
       <c r="J15" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K15" t="n">
         <v>54.16666666666666</v>
@@ -1268,13 +1268,13 @@
         <v>40</v>
       </c>
       <c r="H16" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I16" t="n">
         <v>-131.0833333333333</v>
       </c>
       <c r="J16" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K16" t="n">
         <v>250.8333333333333</v>
@@ -1321,13 +1321,13 @@
         <v>40</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I17" t="n">
         <v>-131.0833333333333</v>
       </c>
       <c r="J17" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K17" t="n">
         <v>152.5</v>
@@ -1374,13 +1374,13 @@
         <v>40</v>
       </c>
       <c r="H18" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I18" t="n">
         <v>-131.0833333333333</v>
       </c>
       <c r="J18" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K18" t="n">
         <v>54.16666666666666</v>
@@ -2063,13 +2063,13 @@
         <v>40</v>
       </c>
       <c r="H31" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I31" t="n">
         <v>172</v>
       </c>
       <c r="J31" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K31" t="n">
         <v>152.5</v>
@@ -2116,13 +2116,13 @@
         <v>40</v>
       </c>
       <c r="H32" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I32" t="n">
         <v>132</v>
       </c>
       <c r="J32" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K32" t="n">
         <v>152.5</v>
@@ -2169,13 +2169,13 @@
         <v>40</v>
       </c>
       <c r="H33" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I33" t="n">
         <v>41.16666666666666</v>
       </c>
       <c r="J33" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K33" t="n">
         <v>152.5</v>
@@ -2222,13 +2222,13 @@
         <v>40</v>
       </c>
       <c r="H34" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I34" t="n">
         <v>1.166666666666664</v>
       </c>
       <c r="J34" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K34" t="n">
         <v>152.5</v>
@@ -2275,13 +2275,13 @@
         <v>40</v>
       </c>
       <c r="H35" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I35" t="n">
         <v>-89.66666666666663</v>
       </c>
       <c r="J35" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K35" t="n">
         <v>152.5</v>
@@ -2328,13 +2328,13 @@
         <v>40</v>
       </c>
       <c r="H36" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I36" t="n">
         <v>-129.6666666666666</v>
       </c>
       <c r="J36" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K36" t="n">
         <v>152.5</v>
@@ -2381,13 +2381,13 @@
         <v>21.4</v>
       </c>
       <c r="H37" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I37" t="n">
         <v>101.2916666666667</v>
       </c>
       <c r="J37" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K37" t="n">
         <v>152.5</v>
@@ -2434,13 +2434,13 @@
         <v>21.4</v>
       </c>
       <c r="H38" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I38" t="n">
         <v>79.87500000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K38" t="n">
         <v>152.5</v>
@@ -2487,13 +2487,13 @@
         <v>21.4</v>
       </c>
       <c r="H39" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I39" t="n">
         <v>-29.54166666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K39" t="n">
         <v>152.5</v>
@@ -2540,13 +2540,13 @@
         <v>21.4</v>
       </c>
       <c r="H40" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I40" t="n">
         <v>-50.95833333333333</v>
       </c>
       <c r="J40" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K40" t="n">
         <v>152.5</v>
@@ -2593,13 +2593,13 @@
         <v>21.4</v>
       </c>
       <c r="H41" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I41" t="n">
         <v>-160.375</v>
       </c>
       <c r="J41" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K41" t="n">
         <v>152.5</v>
@@ -2646,13 +2646,13 @@
         <v>21.4</v>
       </c>
       <c r="H42" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I42" t="n">
         <v>-181.7916666666667</v>
       </c>
       <c r="J42" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K42" t="n">
         <v>152.5</v>
@@ -2698,10 +2698,10 @@
         <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>195.3</v>
+        <v>194.497</v>
       </c>
       <c r="J43" t="n">
-        <v>35.3</v>
+        <v>34.497</v>
       </c>
       <c r="K43" t="n">
         <v>2.5</v>
@@ -2745,10 +2745,10 @@
         <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>195.3</v>
+        <v>194.497</v>
       </c>
       <c r="J44" t="n">
-        <v>-35.3</v>
+        <v>-34.497</v>
       </c>
       <c r="K44" t="n">
         <v>2.5</v>
@@ -2792,10 +2792,10 @@
         <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>65.43333333333334</v>
+        <v>65.16566666666667</v>
       </c>
       <c r="J45" t="n">
-        <v>35.3</v>
+        <v>34.497</v>
       </c>
       <c r="K45" t="n">
         <v>2.5</v>
@@ -2839,10 +2839,10 @@
         <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>65.43333333333334</v>
+        <v>65.16566666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>-35.3</v>
+        <v>-34.497</v>
       </c>
       <c r="K46" t="n">
         <v>2.5</v>
@@ -2886,10 +2886,10 @@
         <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>-65.43333333333334</v>
+        <v>-65.16566666666667</v>
       </c>
       <c r="J47" t="n">
-        <v>35.3</v>
+        <v>34.497</v>
       </c>
       <c r="K47" t="n">
         <v>2.5</v>
@@ -2933,10 +2933,10 @@
         <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>-65.43333333333334</v>
+        <v>-65.16566666666667</v>
       </c>
       <c r="J48" t="n">
-        <v>-35.3</v>
+        <v>-34.497</v>
       </c>
       <c r="K48" t="n">
         <v>2.5</v>
@@ -2980,10 +2980,10 @@
         <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>-195.3</v>
+        <v>-194.497</v>
       </c>
       <c r="J49" t="n">
-        <v>35.3</v>
+        <v>34.497</v>
       </c>
       <c r="K49" t="n">
         <v>2.5</v>
@@ -3027,10 +3027,10 @@
         <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>-195.3</v>
+        <v>-194.497</v>
       </c>
       <c r="J50" t="n">
-        <v>-35.3</v>
+        <v>-34.497</v>
       </c>
       <c r="K50" t="n">
         <v>2.5</v>
@@ -3065,22 +3065,22 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>394.6</v>
+        <v>392.994</v>
       </c>
       <c r="G51" t="n">
-        <v>34.8</v>
+        <v>33.997</v>
       </c>
       <c r="H51" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>17.4</v>
+        <v>16.9985</v>
       </c>
       <c r="K51" t="n">
-        <v>142.9</v>
+        <v>147.6045</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>394.6</v>
+        <v>392.994</v>
       </c>
       <c r="G52" t="n">
-        <v>34.8</v>
+        <v>33.997</v>
       </c>
       <c r="H52" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>-17.4</v>
+        <v>-16.9985</v>
       </c>
       <c r="K52" t="n">
-        <v>142.9</v>
+        <v>147.6045</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -3172,10 +3172,10 @@
         <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>196.3</v>
+        <v>195.497</v>
       </c>
       <c r="J53" t="n">
-        <v>36.3</v>
+        <v>35.497</v>
       </c>
       <c r="K53" t="n">
         <v>152.5</v>
@@ -3216,7 +3216,7 @@
         <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -3225,10 +3225,10 @@
         <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>196.3</v>
+        <v>195.497</v>
       </c>
       <c r="J54" t="n">
-        <v>-36.3</v>
+        <v>-35.497</v>
       </c>
       <c r="K54" t="n">
         <v>152.5</v>
@@ -3269,7 +3269,7 @@
         <v>6</v>
       </c>
       <c r="F55" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -3278,10 +3278,10 @@
         <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>65.43333333333334</v>
+        <v>65.16566666666667</v>
       </c>
       <c r="J55" t="n">
-        <v>36.3</v>
+        <v>35.497</v>
       </c>
       <c r="K55" t="n">
         <v>152.5</v>
@@ -3322,7 +3322,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -3331,10 +3331,10 @@
         <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>65.43333333333334</v>
+        <v>65.16566666666667</v>
       </c>
       <c r="J56" t="n">
-        <v>-36.3</v>
+        <v>-35.497</v>
       </c>
       <c r="K56" t="n">
         <v>152.5</v>
@@ -3375,7 +3375,7 @@
         <v>11</v>
       </c>
       <c r="F57" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -3384,10 +3384,10 @@
         <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>-65.43333333333334</v>
+        <v>-65.16566666666667</v>
       </c>
       <c r="J57" t="n">
-        <v>36.3</v>
+        <v>35.497</v>
       </c>
       <c r="K57" t="n">
         <v>152.5</v>
@@ -3428,7 +3428,7 @@
         <v>12</v>
       </c>
       <c r="F58" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -3437,10 +3437,10 @@
         <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>-65.43333333333334</v>
+        <v>-65.16566666666667</v>
       </c>
       <c r="J58" t="n">
-        <v>-36.3</v>
+        <v>-35.497</v>
       </c>
       <c r="K58" t="n">
         <v>152.5</v>
@@ -3481,7 +3481,7 @@
         <v>16</v>
       </c>
       <c r="F59" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -3490,10 +3490,10 @@
         <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>-196.3</v>
+        <v>-195.497</v>
       </c>
       <c r="J59" t="n">
-        <v>36.3</v>
+        <v>35.497</v>
       </c>
       <c r="K59" t="n">
         <v>152.5</v>
@@ -3534,7 +3534,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -3543,10 +3543,10 @@
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>-196.3</v>
+        <v>-195.497</v>
       </c>
       <c r="J60" t="n">
-        <v>-36.3</v>
+        <v>-35.497</v>
       </c>
       <c r="K60" t="n">
         <v>152.5</v>
@@ -3587,7 +3587,7 @@
         <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -3596,13 +3596,13 @@
         <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>196.3</v>
+        <v>195.497</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>140.3</v>
+        <v>144.603</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>9</v>
       </c>
       <c r="F62" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3649,13 +3649,13 @@
         <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>65.43333333333334</v>
+        <v>65.16566666666667</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>140.3</v>
+        <v>144.603</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>14</v>
       </c>
       <c r="F63" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -3702,13 +3702,13 @@
         <v>3</v>
       </c>
       <c r="I63" t="n">
-        <v>-65.43333333333334</v>
+        <v>-65.16566666666667</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>140.3</v>
+        <v>144.603</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>19</v>
       </c>
       <c r="F64" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -3755,13 +3755,13 @@
         <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>-196.3</v>
+        <v>-195.497</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>140.3</v>
+        <v>144.603</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -3808,13 +3808,13 @@
         <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>196.3</v>
+        <v>195.497</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>8.699999999999999</v>
+        <v>9.503</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>5</v>
       </c>
       <c r="F66" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -3861,13 +3861,13 @@
         <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>65.43333333333334</v>
+        <v>65.16566666666667</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>8.699999999999999</v>
+        <v>9.503</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -3914,13 +3914,13 @@
         <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>-65.43333333333334</v>
+        <v>-65.16566666666667</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>8.699999999999999</v>
+        <v>9.503</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -3967,13 +3967,13 @@
         <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>-196.3</v>
+        <v>-195.497</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>8.699999999999999</v>
+        <v>9.503</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4020,13 +4020,13 @@
         <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>196.3</v>
+        <v>195.497</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>296.3</v>
+        <v>295.497</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>8</v>
       </c>
       <c r="F70" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -4073,13 +4073,13 @@
         <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>65.43333333333334</v>
+        <v>65.16566666666667</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>296.3</v>
+        <v>295.497</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>13</v>
       </c>
       <c r="F71" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -4126,13 +4126,13 @@
         <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>-65.43333333333334</v>
+        <v>-65.16566666666667</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>296.3</v>
+        <v>295.497</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>18</v>
       </c>
       <c r="F72" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -4179,13 +4179,13 @@
         <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>-196.3</v>
+        <v>-195.497</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>296.3</v>
+        <v>295.497</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -4223,7 +4223,7 @@
         <v>21</v>
       </c>
       <c r="F73" t="n">
-        <v>127.8666666666667</v>
+        <v>127.3313333333333</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -4232,13 +4232,13 @@
         <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>130.8666666666667</v>
+        <v>130.3313333333334</v>
       </c>
       <c r="J73" t="n">
-        <v>-36.3</v>
+        <v>-35.497</v>
       </c>
       <c r="K73" t="n">
-        <v>142.5</v>
+        <v>147.606</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>20</v>
       </c>
       <c r="F74" t="n">
-        <v>127.8666666666667</v>
+        <v>127.3313333333333</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -4288,10 +4288,10 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>-36.3</v>
+        <v>-35.497</v>
       </c>
       <c r="K74" t="n">
-        <v>142.5</v>
+        <v>147.606</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>22</v>
       </c>
       <c r="F75" t="n">
-        <v>127.8666666666667</v>
+        <v>127.3313333333333</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -4338,13 +4338,13 @@
         <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>-130.8666666666667</v>
+        <v>-130.3313333333334</v>
       </c>
       <c r="J75" t="n">
-        <v>-36.3</v>
+        <v>-35.497</v>
       </c>
       <c r="K75" t="n">
-        <v>142.5</v>
+        <v>147.606</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -4382,22 +4382,22 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>395.6</v>
+        <v>393.994</v>
       </c>
       <c r="G76" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="H76" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>18.9</v>
+        <v>18.4985</v>
       </c>
       <c r="K76" t="n">
-        <v>6.1</v>
+        <v>6.5015</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -4433,22 +4433,22 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>395.6</v>
+        <v>393.994</v>
       </c>
       <c r="G77" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="H77" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>-18.9</v>
+        <v>-18.4985</v>
       </c>
       <c r="K77" t="n">
-        <v>6.1</v>
+        <v>6.5015</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -4484,22 +4484,22 @@
         <v>2</v>
       </c>
       <c r="F78" t="n">
-        <v>395.6</v>
+        <v>393.994</v>
       </c>
       <c r="G78" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="H78" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>18.9</v>
+        <v>18.4985</v>
       </c>
       <c r="K78" t="n">
-        <v>298.9</v>
+        <v>298.4985</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -4535,22 +4535,22 @@
         <v>3</v>
       </c>
       <c r="F79" t="n">
-        <v>395.6</v>
+        <v>393.994</v>
       </c>
       <c r="G79" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="H79" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>-18.9</v>
+        <v>-18.4985</v>
       </c>
       <c r="K79" t="n">
-        <v>298.9</v>
+        <v>298.4985</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -4588,13 +4588,13 @@
         <v>40</v>
       </c>
       <c r="H80" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I80" t="n">
         <v>180</v>
       </c>
       <c r="J80" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K80" t="n">
         <v>152.5</v>
@@ -4635,13 +4635,13 @@
         <v>40</v>
       </c>
       <c r="H81" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I81" t="n">
         <v>140</v>
       </c>
       <c r="J81" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K81" t="n">
         <v>152.5</v>
@@ -4682,13 +4682,13 @@
         <v>40</v>
       </c>
       <c r="H82" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I82" t="n">
         <v>100</v>
       </c>
       <c r="J82" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K82" t="n">
         <v>152.5</v>
@@ -4729,13 +4729,13 @@
         <v>40</v>
       </c>
       <c r="H83" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I83" t="n">
         <v>60</v>
       </c>
       <c r="J83" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K83" t="n">
         <v>152.5</v>
@@ -4776,13 +4776,13 @@
         <v>40</v>
       </c>
       <c r="H84" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I84" t="n">
         <v>20</v>
       </c>
       <c r="J84" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K84" t="n">
         <v>152.5</v>
@@ -4823,13 +4823,13 @@
         <v>40</v>
       </c>
       <c r="H85" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I85" t="n">
         <v>-20</v>
       </c>
       <c r="J85" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K85" t="n">
         <v>152.5</v>
@@ -4870,13 +4870,13 @@
         <v>40</v>
       </c>
       <c r="H86" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I86" t="n">
         <v>-60</v>
       </c>
       <c r="J86" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K86" t="n">
         <v>152.5</v>
@@ -4917,13 +4917,13 @@
         <v>40</v>
       </c>
       <c r="H87" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I87" t="n">
         <v>-100</v>
       </c>
       <c r="J87" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K87" t="n">
         <v>152.5</v>
@@ -4964,13 +4964,13 @@
         <v>40</v>
       </c>
       <c r="H88" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I88" t="n">
         <v>-140</v>
       </c>
       <c r="J88" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K88" t="n">
         <v>152.5</v>
@@ -5011,13 +5011,13 @@
         <v>40</v>
       </c>
       <c r="H89" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I89" t="n">
         <v>-180</v>
       </c>
       <c r="J89" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K89" t="n">
         <v>152.5</v>
